--- a/data/pca/factorExposure/factorExposure_2016-08-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01271551378822488</v>
+        <v>0.0136627375415561</v>
       </c>
       <c r="C2">
-        <v>0.05535123446695919</v>
+        <v>0.04355946058822226</v>
       </c>
       <c r="D2">
-        <v>-0.03620290046733525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06445431325055895</v>
+      </c>
+      <c r="E2">
+        <v>0.05661666649490435</v>
+      </c>
+      <c r="F2">
+        <v>-0.07930808014371832</v>
+      </c>
+      <c r="G2">
+        <v>0.03389002349523836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06377996790748465</v>
+        <v>0.03111945458243639</v>
       </c>
       <c r="C3">
-        <v>0.09573991630564983</v>
+        <v>0.08204316489893747</v>
       </c>
       <c r="D3">
-        <v>-0.09058463600825985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0899019691236896</v>
+      </c>
+      <c r="E3">
+        <v>0.06544608334149181</v>
+      </c>
+      <c r="F3">
+        <v>-0.002928410128676551</v>
+      </c>
+      <c r="G3">
+        <v>-0.03848693509885005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06744236976328144</v>
+        <v>0.05761347668635894</v>
       </c>
       <c r="C4">
-        <v>0.05906185690218915</v>
+        <v>0.06644023298916629</v>
       </c>
       <c r="D4">
-        <v>-0.02651389547853532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05862763949626916</v>
+      </c>
+      <c r="E4">
+        <v>0.05482472465596586</v>
+      </c>
+      <c r="F4">
+        <v>-0.086545322663268</v>
+      </c>
+      <c r="G4">
+        <v>-0.03853365855683651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04333423986859813</v>
+        <v>0.03540261810621897</v>
       </c>
       <c r="C6">
-        <v>0.03697427537064285</v>
+        <v>0.03151274107750446</v>
       </c>
       <c r="D6">
-        <v>-0.030328443979737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06584481244372681</v>
+      </c>
+      <c r="E6">
+        <v>0.0615711721179843</v>
+      </c>
+      <c r="F6">
+        <v>-0.06947333532908279</v>
+      </c>
+      <c r="G6">
+        <v>-0.02315343492010746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02279780335723213</v>
+        <v>0.01910155930138453</v>
       </c>
       <c r="C7">
-        <v>0.04474437123558621</v>
+        <v>0.03884332578084859</v>
       </c>
       <c r="D7">
-        <v>0.002295324599113783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03687106385976365</v>
+      </c>
+      <c r="E7">
+        <v>0.03650487595281229</v>
+      </c>
+      <c r="F7">
+        <v>-0.1059635040882079</v>
+      </c>
+      <c r="G7">
+        <v>-0.007598085533358386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002518922692654846</v>
+        <v>0.003256572041169501</v>
       </c>
       <c r="C8">
-        <v>0.02728739288233853</v>
+        <v>0.02918497281311263</v>
       </c>
       <c r="D8">
-        <v>-0.0320244236193386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03381662661143382</v>
+      </c>
+      <c r="E8">
+        <v>0.04388469556595966</v>
+      </c>
+      <c r="F8">
+        <v>-0.04747691669169771</v>
+      </c>
+      <c r="G8">
+        <v>-0.01019610411870742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03728867245368692</v>
+        <v>0.03649196542510766</v>
       </c>
       <c r="C9">
-        <v>0.04302044682542436</v>
+        <v>0.05293419935279133</v>
       </c>
       <c r="D9">
-        <v>-0.01361762455563605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04311897902768117</v>
+      </c>
+      <c r="E9">
+        <v>0.04557527927759878</v>
+      </c>
+      <c r="F9">
+        <v>-0.09099751810957633</v>
+      </c>
+      <c r="G9">
+        <v>-0.0231334632521847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06808702324679991</v>
+        <v>0.09877292157035454</v>
       </c>
       <c r="C10">
-        <v>-0.1966268583260465</v>
+        <v>-0.1949322247619508</v>
       </c>
       <c r="D10">
-        <v>3.515614256416006e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001917722124801334</v>
+      </c>
+      <c r="E10">
+        <v>0.04534315738199558</v>
+      </c>
+      <c r="F10">
+        <v>-0.04152479187660176</v>
+      </c>
+      <c r="G10">
+        <v>-0.009474680291108397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04322427962117085</v>
+        <v>0.03646851620343877</v>
       </c>
       <c r="C11">
-        <v>0.05469308172343332</v>
+        <v>0.05142995356462814</v>
       </c>
       <c r="D11">
-        <v>-0.008519582290941807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03345907646978102</v>
+      </c>
+      <c r="E11">
+        <v>0.007860964350991803</v>
+      </c>
+      <c r="F11">
+        <v>-0.06583853983933613</v>
+      </c>
+      <c r="G11">
+        <v>-0.01518341984057063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04255415682298946</v>
+        <v>0.03733850559686731</v>
       </c>
       <c r="C12">
-        <v>0.04917609748740641</v>
+        <v>0.04754411942646176</v>
       </c>
       <c r="D12">
-        <v>-0.001522700404430868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02537505723026485</v>
+      </c>
+      <c r="E12">
+        <v>0.01634240724803604</v>
+      </c>
+      <c r="F12">
+        <v>-0.06844905043303008</v>
+      </c>
+      <c r="G12">
+        <v>-0.01208210288338703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01812980328949126</v>
+        <v>0.0122269023765832</v>
       </c>
       <c r="C13">
-        <v>0.04877253255610078</v>
+        <v>0.04284966487527926</v>
       </c>
       <c r="D13">
-        <v>-0.02098977963874576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06129575850289667</v>
+      </c>
+      <c r="E13">
+        <v>0.06714124970885647</v>
+      </c>
+      <c r="F13">
+        <v>-0.1108639475992222</v>
+      </c>
+      <c r="G13">
+        <v>-0.01950351028642387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009357683120218806</v>
+        <v>0.004982927868190861</v>
       </c>
       <c r="C14">
-        <v>0.03582438935220498</v>
+        <v>0.03238747312199258</v>
       </c>
       <c r="D14">
-        <v>0.0156425370985876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02547500397350304</v>
+      </c>
+      <c r="E14">
+        <v>0.02912924053989343</v>
+      </c>
+      <c r="F14">
+        <v>-0.09725251969307866</v>
+      </c>
+      <c r="G14">
+        <v>0.007298594309598163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0008313421623497119</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002594226172376223</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005458685565509416</v>
+      </c>
+      <c r="E15">
+        <v>0.001602450845523417</v>
+      </c>
+      <c r="F15">
+        <v>-0.002726736178637845</v>
+      </c>
+      <c r="G15">
+        <v>0.001381453983260462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03894381294636839</v>
+        <v>0.03394469214918157</v>
       </c>
       <c r="C16">
-        <v>0.04644187253673773</v>
+        <v>0.0453848165993835</v>
       </c>
       <c r="D16">
-        <v>-0.007348420546563273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02727223427377805</v>
+      </c>
+      <c r="E16">
+        <v>0.02189921103805689</v>
+      </c>
+      <c r="F16">
+        <v>-0.07029334859595741</v>
+      </c>
+      <c r="G16">
+        <v>-0.001631843491076773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0283482116944862</v>
+        <v>0.01664620952010356</v>
       </c>
       <c r="C19">
-        <v>0.06485672652927071</v>
+        <v>0.05112760473148948</v>
       </c>
       <c r="D19">
-        <v>-0.07454269388509696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09284689059700768</v>
+      </c>
+      <c r="E19">
+        <v>0.08539221234816993</v>
+      </c>
+      <c r="F19">
+        <v>-0.08923255536490876</v>
+      </c>
+      <c r="G19">
+        <v>0.02173269215748649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01935293415300389</v>
+        <v>0.01349412686490261</v>
       </c>
       <c r="C20">
-        <v>0.04664382307317326</v>
+        <v>0.04144429541949739</v>
       </c>
       <c r="D20">
-        <v>-0.01834238666443927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03846233338631922</v>
+      </c>
+      <c r="E20">
+        <v>0.0589659939205223</v>
+      </c>
+      <c r="F20">
+        <v>-0.08658713072385192</v>
+      </c>
+      <c r="G20">
+        <v>-0.005387352819759939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01444761618166635</v>
+        <v>0.009021783845812781</v>
       </c>
       <c r="C21">
-        <v>0.04905255863475483</v>
+        <v>0.04520476105640803</v>
       </c>
       <c r="D21">
-        <v>-0.03439193408448935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06637214870517345</v>
+      </c>
+      <c r="E21">
+        <v>0.07523923470470842</v>
+      </c>
+      <c r="F21">
+        <v>-0.1356168265655838</v>
+      </c>
+      <c r="G21">
+        <v>-0.008108651929073328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001881573902915387</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02315041410698787</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03619638286277923</v>
+      </c>
+      <c r="E22">
+        <v>0.02170664348992008</v>
+      </c>
+      <c r="F22">
+        <v>-0.01989028284722313</v>
+      </c>
+      <c r="G22">
+        <v>-0.03907527854981879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001949649167981189</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02327363926546459</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03587663131039813</v>
+      </c>
+      <c r="E23">
+        <v>0.02197988532240485</v>
+      </c>
+      <c r="F23">
+        <v>-0.01975129423088595</v>
+      </c>
+      <c r="G23">
+        <v>-0.03927637635948093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03460205599341313</v>
+        <v>0.03366496901609244</v>
       </c>
       <c r="C24">
-        <v>0.05108839755128681</v>
+        <v>0.05346925429032257</v>
       </c>
       <c r="D24">
-        <v>-0.005623022149869828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02634511085223265</v>
+      </c>
+      <c r="E24">
+        <v>0.01940661110593792</v>
+      </c>
+      <c r="F24">
+        <v>-0.07809014818857031</v>
+      </c>
+      <c r="G24">
+        <v>-0.009115595740729418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04892863944780634</v>
+        <v>0.04396905471142469</v>
       </c>
       <c r="C25">
-        <v>0.06004954926425478</v>
+        <v>0.05662001298627743</v>
       </c>
       <c r="D25">
-        <v>0.005453906454608365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02440428297804842</v>
+      </c>
+      <c r="E25">
+        <v>0.01357618628743317</v>
+      </c>
+      <c r="F25">
+        <v>-0.07987814577199696</v>
+      </c>
+      <c r="G25">
+        <v>-0.02604364668080143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01760292422232813</v>
+        <v>0.01385067404012877</v>
       </c>
       <c r="C26">
-        <v>0.01661452448500125</v>
+        <v>0.01723759456187471</v>
       </c>
       <c r="D26">
-        <v>0.0006409096186109116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02500090021371476</v>
+      </c>
+      <c r="E26">
+        <v>0.03087165933255116</v>
+      </c>
+      <c r="F26">
+        <v>-0.07286200514974056</v>
+      </c>
+      <c r="G26">
+        <v>0.01388189466289916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07908077855874326</v>
+        <v>0.1332246066926163</v>
       </c>
       <c r="C28">
-        <v>-0.2294579248029026</v>
+        <v>-0.2454665526373639</v>
       </c>
       <c r="D28">
-        <v>0.0002333906540744527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01759497364929665</v>
+      </c>
+      <c r="E28">
+        <v>0.04830375534949918</v>
+      </c>
+      <c r="F28">
+        <v>-0.05597880804079436</v>
+      </c>
+      <c r="G28">
+        <v>-0.02201314772664665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01099751936290727</v>
+        <v>0.005934273310830207</v>
       </c>
       <c r="C29">
-        <v>0.0282995080897543</v>
+        <v>0.02767513091380892</v>
       </c>
       <c r="D29">
-        <v>0.01760530857677502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01993292413267089</v>
+      </c>
+      <c r="E29">
+        <v>0.03091446107931158</v>
+      </c>
+      <c r="F29">
+        <v>-0.08976162191804717</v>
+      </c>
+      <c r="G29">
+        <v>-0.005030402020165459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05610641551969685</v>
+        <v>0.04224996278297386</v>
       </c>
       <c r="C30">
-        <v>0.05906354574658607</v>
+        <v>0.06510597951047091</v>
       </c>
       <c r="D30">
-        <v>-0.05936557401021048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1067772302584265</v>
+      </c>
+      <c r="E30">
+        <v>0.04668046738680983</v>
+      </c>
+      <c r="F30">
+        <v>-0.102975150562807</v>
+      </c>
+      <c r="G30">
+        <v>0.01295079238818331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05505732797361558</v>
+        <v>0.05473700682666702</v>
       </c>
       <c r="C31">
-        <v>0.03313853819859044</v>
+        <v>0.05482405901252634</v>
       </c>
       <c r="D31">
-        <v>0.01999302984255279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01156827164276495</v>
+      </c>
+      <c r="E31">
+        <v>0.0501756870492605</v>
+      </c>
+      <c r="F31">
+        <v>-0.07889634586262027</v>
+      </c>
+      <c r="G31">
+        <v>-0.04799052494896831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002589524983665425</v>
+        <v>0.004974850722289095</v>
       </c>
       <c r="C32">
-        <v>0.04573154891691893</v>
+        <v>0.0338932026144031</v>
       </c>
       <c r="D32">
-        <v>-0.03036191420979989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05027932996834655</v>
+      </c>
+      <c r="E32">
+        <v>0.02762118402270627</v>
+      </c>
+      <c r="F32">
+        <v>-0.07327121160435542</v>
+      </c>
+      <c r="G32">
+        <v>0.01038574625091387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03114729444044968</v>
+        <v>0.02473902909390369</v>
       </c>
       <c r="C33">
-        <v>0.06206398480579264</v>
+        <v>0.05567474492668895</v>
       </c>
       <c r="D33">
-        <v>-0.03878116235345942</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07835866707657559</v>
+      </c>
+      <c r="E33">
+        <v>0.05642059315545701</v>
+      </c>
+      <c r="F33">
+        <v>-0.1261674278151371</v>
+      </c>
+      <c r="G33">
+        <v>-0.0209304032930819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04702155923346715</v>
+        <v>0.04126772416792324</v>
       </c>
       <c r="C34">
-        <v>0.06419320518131208</v>
+        <v>0.06390001019238976</v>
       </c>
       <c r="D34">
-        <v>-0.002901006578754418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03326759011131653</v>
+      </c>
+      <c r="E34">
+        <v>-0.004414851960264536</v>
+      </c>
+      <c r="F34">
+        <v>-0.07638664366470017</v>
+      </c>
+      <c r="G34">
+        <v>-0.01109701805064018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01432120992536238</v>
+        <v>0.01300346945110148</v>
       </c>
       <c r="C36">
-        <v>0.01697901365358323</v>
+        <v>0.01289619678661566</v>
       </c>
       <c r="D36">
-        <v>0.001222991242816836</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02635481938062527</v>
+      </c>
+      <c r="E36">
+        <v>0.03701559634255537</v>
+      </c>
+      <c r="F36">
+        <v>-0.08006537148691908</v>
+      </c>
+      <c r="G36">
+        <v>-0.009490580908560838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0317920090274758</v>
+        <v>0.02450558724751126</v>
       </c>
       <c r="C38">
-        <v>0.02826708625211579</v>
+        <v>0.02456009457677133</v>
       </c>
       <c r="D38">
-        <v>0.00314374653995395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02551253140116168</v>
+      </c>
+      <c r="E38">
+        <v>0.03609025588156647</v>
+      </c>
+      <c r="F38">
+        <v>-0.06831904531417125</v>
+      </c>
+      <c r="G38">
+        <v>-0.004726727064846906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04697414541517781</v>
+        <v>0.03959539097731041</v>
       </c>
       <c r="C39">
-        <v>0.07279683742845129</v>
+        <v>0.06854120956374719</v>
       </c>
       <c r="D39">
-        <v>-0.02230956098101873</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05255005725373849</v>
+      </c>
+      <c r="E39">
+        <v>0.0221310088756549</v>
+      </c>
+      <c r="F39">
+        <v>-0.09024809204535214</v>
+      </c>
+      <c r="G39">
+        <v>0.01434929217278205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01762872038433786</v>
+        <v>0.01567177812405554</v>
       </c>
       <c r="C40">
-        <v>0.04033016400391298</v>
+        <v>0.0411122279055578</v>
       </c>
       <c r="D40">
-        <v>-0.03438858064550891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03747864492526737</v>
+      </c>
+      <c r="E40">
+        <v>0.07408538500185693</v>
+      </c>
+      <c r="F40">
+        <v>-0.08254432251178195</v>
+      </c>
+      <c r="G40">
+        <v>-0.04410042268787182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01618571168605749</v>
+        <v>0.01746405463138439</v>
       </c>
       <c r="C41">
-        <v>0.01282998152692932</v>
+        <v>0.006805872001531324</v>
       </c>
       <c r="D41">
-        <v>0.002897593470586278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01462960424583165</v>
+      </c>
+      <c r="E41">
+        <v>0.04016550094855529</v>
+      </c>
+      <c r="F41">
+        <v>-0.07044393021434787</v>
+      </c>
+      <c r="G41">
+        <v>-0.003079228566011239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.001074065558490511</v>
+        <v>0.0007943938062941033</v>
       </c>
       <c r="C42">
-        <v>0.006808179426610909</v>
+        <v>0.003796663038825113</v>
       </c>
       <c r="D42">
-        <v>-0.007835929371254328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001307915679124983</v>
+      </c>
+      <c r="E42">
+        <v>0.006995514279937602</v>
+      </c>
+      <c r="F42">
+        <v>0.006630877641211481</v>
+      </c>
+      <c r="G42">
+        <v>0.001155088591968372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03719881709129762</v>
+        <v>0.02873146352046464</v>
       </c>
       <c r="C43">
-        <v>0.02702601653500725</v>
+        <v>0.02218630120080588</v>
       </c>
       <c r="D43">
-        <v>-0.01441203873380553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03834228731937606</v>
+      </c>
+      <c r="E43">
+        <v>0.04738367643015324</v>
+      </c>
+      <c r="F43">
+        <v>-0.08307688114101029</v>
+      </c>
+      <c r="G43">
+        <v>-0.02260134049464038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02229668245291673</v>
+        <v>0.01421319449752234</v>
       </c>
       <c r="C44">
-        <v>0.05801010299360001</v>
+        <v>0.05282797686647439</v>
       </c>
       <c r="D44">
-        <v>-0.01446187507374962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03853018854610011</v>
+      </c>
+      <c r="E44">
+        <v>0.06028715609526668</v>
+      </c>
+      <c r="F44">
+        <v>-0.0865752439618435</v>
+      </c>
+      <c r="G44">
+        <v>0.002603067548739482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006865374891887458</v>
+        <v>0.00770374635635908</v>
       </c>
       <c r="C46">
-        <v>0.02368450901967582</v>
+        <v>0.02596204903176209</v>
       </c>
       <c r="D46">
-        <v>0.02318939150789632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01148615495573815</v>
+      </c>
+      <c r="E46">
+        <v>0.03576432270882662</v>
+      </c>
+      <c r="F46">
+        <v>-0.1032597751116295</v>
+      </c>
+      <c r="G46">
+        <v>-0.000768606619774766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08531914738393473</v>
+        <v>0.08715159085706846</v>
       </c>
       <c r="C47">
-        <v>0.06767944861231132</v>
+        <v>0.07986492845608448</v>
       </c>
       <c r="D47">
-        <v>0.01698260429305179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01814391729035446</v>
+      </c>
+      <c r="E47">
+        <v>0.05634766633118322</v>
+      </c>
+      <c r="F47">
+        <v>-0.07777095590440744</v>
+      </c>
+      <c r="G47">
+        <v>-0.05061457916241067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02081410708383778</v>
+        <v>0.01575598891925044</v>
       </c>
       <c r="C48">
-        <v>0.0141047151997544</v>
+        <v>0.01794279320234005</v>
       </c>
       <c r="D48">
-        <v>0.01015566607171207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0162194784952253</v>
+      </c>
+      <c r="E48">
+        <v>0.04856164453017544</v>
+      </c>
+      <c r="F48">
+        <v>-0.09469689865681746</v>
+      </c>
+      <c r="G48">
+        <v>-0.00884723046853325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08557512498057139</v>
+        <v>0.0710184395182667</v>
       </c>
       <c r="C50">
-        <v>0.06785964489633899</v>
+        <v>0.07173569172153015</v>
       </c>
       <c r="D50">
-        <v>0.02596266582510576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006430607644175348</v>
+      </c>
+      <c r="E50">
+        <v>0.05497759558710542</v>
+      </c>
+      <c r="F50">
+        <v>-0.06920353374219888</v>
+      </c>
+      <c r="G50">
+        <v>-0.0726803770793714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01866261530534703</v>
+        <v>0.010831013423155</v>
       </c>
       <c r="C51">
-        <v>0.04834597947327969</v>
+        <v>0.03429107056335814</v>
       </c>
       <c r="D51">
-        <v>-0.0142541099722821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04787710547968688</v>
+      </c>
+      <c r="E51">
+        <v>0.02555246949691107</v>
+      </c>
+      <c r="F51">
+        <v>-0.08152892162533452</v>
+      </c>
+      <c r="G51">
+        <v>0.01929105567567711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08643713651413595</v>
+        <v>0.09408612536098711</v>
       </c>
       <c r="C53">
-        <v>0.07031340585925087</v>
+        <v>0.08603219951380651</v>
       </c>
       <c r="D53">
-        <v>0.03337312038680656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0411630164193904</v>
+      </c>
+      <c r="E53">
+        <v>0.05289912022766772</v>
+      </c>
+      <c r="F53">
+        <v>-0.0876418846807709</v>
+      </c>
+      <c r="G53">
+        <v>-0.06267927052462155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03447300416245855</v>
+        <v>0.02819504190346744</v>
       </c>
       <c r="C54">
-        <v>0.02427249601901093</v>
+        <v>0.02698413186302741</v>
       </c>
       <c r="D54">
-        <v>-0.0006238858101978919</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03014569705005935</v>
+      </c>
+      <c r="E54">
+        <v>0.04349993514928876</v>
+      </c>
+      <c r="F54">
+        <v>-0.09581472856428179</v>
+      </c>
+      <c r="G54">
+        <v>-0.005952131699489943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07823940251637378</v>
+        <v>0.08544870224020303</v>
       </c>
       <c r="C55">
-        <v>0.05535285365314507</v>
+        <v>0.06979771356303428</v>
       </c>
       <c r="D55">
-        <v>0.03806146539947695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04841828131206746</v>
+      </c>
+      <c r="E55">
+        <v>0.04396399743011468</v>
+      </c>
+      <c r="F55">
+        <v>-0.0613793731966119</v>
+      </c>
+      <c r="G55">
+        <v>-0.05132093468808385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1512702810069106</v>
+        <v>0.1470202274397203</v>
       </c>
       <c r="C56">
-        <v>0.08413204297232516</v>
+        <v>0.1036052785113915</v>
       </c>
       <c r="D56">
-        <v>0.04152435330873126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05194230369579411</v>
+      </c>
+      <c r="E56">
+        <v>0.04653008582515446</v>
+      </c>
+      <c r="F56">
+        <v>-0.04783909769267136</v>
+      </c>
+      <c r="G56">
+        <v>-0.05904752077614634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.002028098484814864</v>
+        <v>0.0008852611266132789</v>
       </c>
       <c r="C57">
-        <v>0.002059623376971289</v>
+        <v>0.001351323060867682</v>
       </c>
       <c r="D57">
-        <v>-0.02159776968691317</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01646326818551854</v>
+      </c>
+      <c r="E57">
+        <v>0.01035758549939743</v>
+      </c>
+      <c r="F57">
+        <v>-0.007093508157089744</v>
+      </c>
+      <c r="G57">
+        <v>-0.004676561078127459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0709081101556511</v>
+        <v>0.02826208079892005</v>
       </c>
       <c r="C58">
-        <v>0.02451796588715973</v>
+        <v>0.03934017769013812</v>
       </c>
       <c r="D58">
-        <v>-0.878553574863936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4600540335669377</v>
+      </c>
+      <c r="E58">
+        <v>0.6963953451466399</v>
+      </c>
+      <c r="F58">
+        <v>0.4680011145033293</v>
+      </c>
+      <c r="G58">
+        <v>0.0519054372935388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1262613643971308</v>
+        <v>0.1439467767604607</v>
       </c>
       <c r="C59">
-        <v>-0.2051328575328482</v>
+        <v>-0.1867090710931891</v>
       </c>
       <c r="D59">
-        <v>-0.02050955471183221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03212591173499809</v>
+      </c>
+      <c r="E59">
+        <v>0.0277838399934572</v>
+      </c>
+      <c r="F59">
+        <v>-0.0239143217533825</v>
+      </c>
+      <c r="G59">
+        <v>0.0280580595514967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3143237298614192</v>
+        <v>0.2838207902736022</v>
       </c>
       <c r="C60">
-        <v>0.07740108205004244</v>
+        <v>0.09654370778672587</v>
       </c>
       <c r="D60">
-        <v>-0.04202006147891175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2119860263566003</v>
+      </c>
+      <c r="E60">
+        <v>-0.2684342153823218</v>
+      </c>
+      <c r="F60">
+        <v>0.1100079022151699</v>
+      </c>
+      <c r="G60">
+        <v>-0.04502819252939539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04384009271111619</v>
+        <v>0.04101367520338243</v>
       </c>
       <c r="C61">
-        <v>0.06352916638710031</v>
+        <v>0.06191308114377761</v>
       </c>
       <c r="D61">
-        <v>-0.01145160205196231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04518159718985887</v>
+      </c>
+      <c r="E61">
+        <v>0.0249516008158176</v>
+      </c>
+      <c r="F61">
+        <v>-0.08227685940265561</v>
+      </c>
+      <c r="G61">
+        <v>-0.01195846571544998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01749721994505838</v>
+        <v>0.01517446205817768</v>
       </c>
       <c r="C63">
-        <v>0.03631620031968108</v>
+        <v>0.03300271693600743</v>
       </c>
       <c r="D63">
-        <v>0.004834190389944057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02181390704839618</v>
+      </c>
+      <c r="E63">
+        <v>0.03944740072916472</v>
+      </c>
+      <c r="F63">
+        <v>-0.07594331938543851</v>
+      </c>
+      <c r="G63">
+        <v>-0.02831487743791608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05133645096422966</v>
+        <v>0.05569385233389978</v>
       </c>
       <c r="C64">
-        <v>0.03821589912573007</v>
+        <v>0.05437086836831315</v>
       </c>
       <c r="D64">
-        <v>0.00827761253537827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005507878167958639</v>
+      </c>
+      <c r="E64">
+        <v>0.02124646217710513</v>
+      </c>
+      <c r="F64">
+        <v>-0.08544005255851878</v>
+      </c>
+      <c r="G64">
+        <v>-0.009557354425312123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09460961142687301</v>
+        <v>0.0693875957987773</v>
       </c>
       <c r="C65">
-        <v>0.02526370558384362</v>
+        <v>0.0320658985568548</v>
       </c>
       <c r="D65">
-        <v>-0.04203712538058429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08623714489095824</v>
+      </c>
+      <c r="E65">
+        <v>0.03471034113077823</v>
+      </c>
+      <c r="F65">
+        <v>-0.01794506905299156</v>
+      </c>
+      <c r="G65">
+        <v>-0.002227625496217712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06736496144382839</v>
+        <v>0.05254063255432748</v>
       </c>
       <c r="C66">
-        <v>0.1021343528727984</v>
+        <v>0.09045671689358041</v>
       </c>
       <c r="D66">
-        <v>-0.03621844512781671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07988911158361373</v>
+      </c>
+      <c r="E66">
+        <v>0.02616119995393554</v>
+      </c>
+      <c r="F66">
+        <v>-0.09317546758663674</v>
+      </c>
+      <c r="G66">
+        <v>-0.003344281328433755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0533053524329291</v>
+        <v>0.04657333948473583</v>
       </c>
       <c r="C67">
-        <v>0.03192649681559278</v>
+        <v>0.03031025091327611</v>
       </c>
       <c r="D67">
-        <v>0.007636908659928262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01171566722377351</v>
+      </c>
+      <c r="E67">
+        <v>0.0181935167776034</v>
+      </c>
+      <c r="F67">
+        <v>-0.05390635327117069</v>
+      </c>
+      <c r="G67">
+        <v>-0.01142147482654811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1073407642700674</v>
+        <v>0.1491146978738386</v>
       </c>
       <c r="C68">
-        <v>-0.2927275602981603</v>
+        <v>-0.2525591846395344</v>
       </c>
       <c r="D68">
-        <v>0.002908702273245778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01824528025196471</v>
+      </c>
+      <c r="E68">
+        <v>0.04252250758807632</v>
+      </c>
+      <c r="F68">
+        <v>-0.01595691767105888</v>
+      </c>
+      <c r="G68">
+        <v>-0.01094093627157496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09158624667011034</v>
+        <v>0.0872291639635846</v>
       </c>
       <c r="C69">
-        <v>0.06587844701571717</v>
+        <v>0.08544958811660171</v>
       </c>
       <c r="D69">
-        <v>0.04051472180144049</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01212491300813725</v>
+      </c>
+      <c r="E69">
+        <v>0.0335266594707787</v>
+      </c>
+      <c r="F69">
+        <v>-0.09625609006455604</v>
+      </c>
+      <c r="G69">
+        <v>-0.02819996745700662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1045270759111246</v>
+        <v>0.1413253254711422</v>
       </c>
       <c r="C71">
-        <v>-0.2511794316869249</v>
+        <v>-0.2338641188591839</v>
       </c>
       <c r="D71">
-        <v>-0.02715364601569055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01465521621495286</v>
+      </c>
+      <c r="E71">
+        <v>0.0646329224511444</v>
+      </c>
+      <c r="F71">
+        <v>-0.05609556391576703</v>
+      </c>
+      <c r="G71">
+        <v>-0.03444568860379853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09028753044730944</v>
+        <v>0.09725298950074833</v>
       </c>
       <c r="C72">
-        <v>0.04671350100049726</v>
+        <v>0.05561315602640066</v>
       </c>
       <c r="D72">
-        <v>0.009087345599706852</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02046222846103685</v>
+      </c>
+      <c r="E72">
+        <v>0.01048220957156092</v>
+      </c>
+      <c r="F72">
+        <v>-0.0800273335959702</v>
+      </c>
+      <c r="G72">
+        <v>-0.0284839959996781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4228055457915229</v>
+        <v>0.3472328057816477</v>
       </c>
       <c r="C73">
-        <v>0.04181569247638094</v>
+        <v>0.07683873535441851</v>
       </c>
       <c r="D73">
-        <v>-0.1840050629665634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4507897250163738</v>
+      </c>
+      <c r="E73">
+        <v>-0.4728275547474852</v>
+      </c>
+      <c r="F73">
+        <v>0.2850430934866174</v>
+      </c>
+      <c r="G73">
+        <v>-0.1002366226712153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1167854214108737</v>
+        <v>0.1118367026133928</v>
       </c>
       <c r="C74">
-        <v>0.09842906242894241</v>
+        <v>0.0990358129922643</v>
       </c>
       <c r="D74">
-        <v>0.0167630080389313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03194128959210608</v>
+      </c>
+      <c r="E74">
+        <v>0.06317634259128956</v>
+      </c>
+      <c r="F74">
+        <v>-0.0513531863721941</v>
+      </c>
+      <c r="G74">
+        <v>-0.07235375625637766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2515584268917988</v>
+        <v>0.2578938698428563</v>
       </c>
       <c r="C75">
-        <v>0.1019048534480532</v>
+        <v>0.1319539220782346</v>
       </c>
       <c r="D75">
-        <v>0.06628022147303629</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1310957138532974</v>
+      </c>
+      <c r="E75">
+        <v>0.07083274120212374</v>
+      </c>
+      <c r="F75">
+        <v>-0.01756437095901906</v>
+      </c>
+      <c r="G75">
+        <v>-0.07695189878824035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1173858395013175</v>
+        <v>0.1289945640112238</v>
       </c>
       <c r="C76">
-        <v>0.08951354652663562</v>
+        <v>0.1005876637915648</v>
       </c>
       <c r="D76">
-        <v>0.03448646320371018</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0593249149498594</v>
+      </c>
+      <c r="E76">
+        <v>0.06693417296798014</v>
+      </c>
+      <c r="F76">
+        <v>-0.07001948642900782</v>
+      </c>
+      <c r="G76">
+        <v>-0.0622808481526416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07984170473033182</v>
+        <v>0.06229729061601705</v>
       </c>
       <c r="C77">
-        <v>0.05387534979807737</v>
+        <v>0.07013606489415165</v>
       </c>
       <c r="D77">
-        <v>-0.05308212110745365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06270325483041901</v>
+      </c>
+      <c r="E77">
+        <v>0.07206716805056144</v>
+      </c>
+      <c r="F77">
+        <v>-0.1203300075170699</v>
+      </c>
+      <c r="G77">
+        <v>0.1375451119361209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05134400699548222</v>
+        <v>0.04374396496551939</v>
       </c>
       <c r="C78">
-        <v>0.04044717971778478</v>
+        <v>0.05580805220301278</v>
       </c>
       <c r="D78">
-        <v>-0.01879981514350649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07296336330417354</v>
+      </c>
+      <c r="E78">
+        <v>0.02801216240623773</v>
+      </c>
+      <c r="F78">
+        <v>-0.1036141421775758</v>
+      </c>
+      <c r="G78">
+        <v>-0.004417104673233168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02548625434759304</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03759271438281412</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05995458165486878</v>
+      </c>
+      <c r="E79">
+        <v>0.05037882753653668</v>
+      </c>
+      <c r="F79">
+        <v>-0.04287585020149168</v>
+      </c>
+      <c r="G79">
+        <v>-0.06584473413058974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04692985360952</v>
+        <v>0.03489022671734278</v>
       </c>
       <c r="C80">
-        <v>0.04946299765812123</v>
+        <v>0.05510788835873277</v>
       </c>
       <c r="D80">
-        <v>-0.03213805080259848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04655712744379833</v>
+      </c>
+      <c r="E80">
+        <v>0.01274588591055116</v>
+      </c>
+      <c r="F80">
+        <v>-0.03567751074511805</v>
+      </c>
+      <c r="G80">
+        <v>0.04690214923064578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1409494274574532</v>
+        <v>0.1411478172731451</v>
       </c>
       <c r="C81">
-        <v>0.06892887550516137</v>
+        <v>0.09533911146379243</v>
       </c>
       <c r="D81">
-        <v>0.03807606283253278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09821900609430402</v>
+      </c>
+      <c r="E81">
+        <v>0.0811507724486074</v>
+      </c>
+      <c r="F81">
+        <v>-0.01600732635844452</v>
+      </c>
+      <c r="G81">
+        <v>-0.055831163227941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1572169240738008</v>
+        <v>0.2016477664410967</v>
       </c>
       <c r="C82">
-        <v>0.05342331320669342</v>
+        <v>0.1342097550667017</v>
       </c>
       <c r="D82">
-        <v>0.1380812238997255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2314685220899189</v>
+      </c>
+      <c r="E82">
+        <v>0.009504862045386506</v>
+      </c>
+      <c r="F82">
+        <v>-0.08225323202938557</v>
+      </c>
+      <c r="G82">
+        <v>-0.0402717945793485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03662438900184688</v>
+        <v>0.02801247895884918</v>
       </c>
       <c r="C83">
-        <v>0.02050829514037856</v>
+        <v>0.04086136045006736</v>
       </c>
       <c r="D83">
-        <v>-0.02679022843905606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03390854026154429</v>
+      </c>
+      <c r="E83">
+        <v>0.01064833931837878</v>
+      </c>
+      <c r="F83">
+        <v>-0.04828191649049125</v>
+      </c>
+      <c r="G83">
+        <v>0.02054906945284517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2214174423248292</v>
+        <v>0.2050436455400115</v>
       </c>
       <c r="C85">
-        <v>0.1008824649690166</v>
+        <v>0.1193854738941905</v>
       </c>
       <c r="D85">
-        <v>0.09967568774988637</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1025999500011401</v>
+      </c>
+      <c r="E85">
+        <v>0.002230364720953084</v>
+      </c>
+      <c r="F85">
+        <v>0.01979654284151354</v>
+      </c>
+      <c r="G85">
+        <v>-0.1301184326115706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01280136008073943</v>
+        <v>0.0113565117397709</v>
       </c>
       <c r="C86">
-        <v>0.03497482200223299</v>
+        <v>0.0314144141556843</v>
       </c>
       <c r="D86">
-        <v>-0.04087855899566115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07037885564095046</v>
+      </c>
+      <c r="E86">
+        <v>0.04922354111779041</v>
+      </c>
+      <c r="F86">
+        <v>-0.1367814470639218</v>
+      </c>
+      <c r="G86">
+        <v>0.01009322129678729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02408133531744044</v>
+        <v>0.021416317292307</v>
       </c>
       <c r="C87">
-        <v>0.01874288596297679</v>
+        <v>0.02194918584080511</v>
       </c>
       <c r="D87">
-        <v>-0.09543077843820295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09127458299297023</v>
+      </c>
+      <c r="E87">
+        <v>0.09502891827656328</v>
+      </c>
+      <c r="F87">
+        <v>-0.09030552606630601</v>
+      </c>
+      <c r="G87">
+        <v>0.03684284148276463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1065413412932717</v>
+        <v>0.09192388488931179</v>
       </c>
       <c r="C88">
-        <v>0.06927812551345383</v>
+        <v>0.06240759746179228</v>
       </c>
       <c r="D88">
-        <v>0.01783839979124857</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01006673945130221</v>
+      </c>
+      <c r="E88">
+        <v>0.03786386475457083</v>
+      </c>
+      <c r="F88">
+        <v>-0.07191392527165816</v>
+      </c>
+      <c r="G88">
+        <v>0.03010488986840131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1673038230185273</v>
+        <v>0.2209696541996986</v>
       </c>
       <c r="C89">
-        <v>-0.3818804049678058</v>
+        <v>-0.3812479711925261</v>
       </c>
       <c r="D89">
-        <v>0.02498041107123383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01271030323349518</v>
+      </c>
+      <c r="E89">
+        <v>0.03899080634716675</v>
+      </c>
+      <c r="F89">
+        <v>-0.09561818461721039</v>
+      </c>
+      <c r="G89">
+        <v>0.06400076206118849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1622971649958743</v>
+        <v>0.1993497525431207</v>
       </c>
       <c r="C90">
-        <v>-0.3534271692352636</v>
+        <v>-0.3161262358955603</v>
       </c>
       <c r="D90">
-        <v>0.01287517202004468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01218864778980592</v>
+      </c>
+      <c r="E90">
+        <v>0.06808348561338089</v>
+      </c>
+      <c r="F90">
+        <v>-0.04495948898767603</v>
+      </c>
+      <c r="G90">
+        <v>0.01164835710474551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1916458847218637</v>
+        <v>0.1869128241729811</v>
       </c>
       <c r="C91">
-        <v>0.1116867812400015</v>
+        <v>0.1386899678698923</v>
       </c>
       <c r="D91">
-        <v>0.06106242900582762</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1073434901919981</v>
+      </c>
+      <c r="E91">
+        <v>0.0641224531097086</v>
+      </c>
+      <c r="F91">
+        <v>-0.03394957773399616</v>
+      </c>
+      <c r="G91">
+        <v>-0.05891919948246005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1561110138867859</v>
+        <v>0.1810553394067647</v>
       </c>
       <c r="C92">
-        <v>-0.2988168231215479</v>
+        <v>-0.2839423676279836</v>
       </c>
       <c r="D92">
-        <v>0.007258500980143821</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003300007625451077</v>
+      </c>
+      <c r="E92">
+        <v>0.06722856872528868</v>
+      </c>
+      <c r="F92">
+        <v>-0.08396604300845462</v>
+      </c>
+      <c r="G92">
+        <v>0.007921667216872774</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1843705865896715</v>
+        <v>0.2233776113822308</v>
       </c>
       <c r="C93">
-        <v>-0.3467455461432645</v>
+        <v>-0.3201227591054943</v>
       </c>
       <c r="D93">
-        <v>0.006018406170168266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003178686652511026</v>
+      </c>
+      <c r="E93">
+        <v>0.05271517845886724</v>
+      </c>
+      <c r="F93">
+        <v>-0.04127210260986239</v>
+      </c>
+      <c r="G93">
+        <v>-0.02700747180502453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3372177541568455</v>
+        <v>0.343051745817914</v>
       </c>
       <c r="C94">
-        <v>0.1292729624372722</v>
+        <v>0.1827232918374175</v>
       </c>
       <c r="D94">
-        <v>0.2879181923970003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4799150068428724</v>
+      </c>
+      <c r="E94">
+        <v>0.120398159531846</v>
+      </c>
+      <c r="F94">
+        <v>0.4416364878717625</v>
+      </c>
+      <c r="G94">
+        <v>0.3279472937852671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1087556141740498</v>
+        <v>0.08578934200672242</v>
       </c>
       <c r="C95">
-        <v>0.07146206035710068</v>
+        <v>0.06674979152967142</v>
       </c>
       <c r="D95">
-        <v>-0.05731234927787304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1612031400309782</v>
+      </c>
+      <c r="E95">
+        <v>-0.1203505534176227</v>
+      </c>
+      <c r="F95">
+        <v>-0.1990465163500824</v>
+      </c>
+      <c r="G95">
+        <v>0.8677306726939973</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1976576664877298</v>
+        <v>0.1875993703423497</v>
       </c>
       <c r="C98">
-        <v>0.01525111132760679</v>
+        <v>0.04245969917307046</v>
       </c>
       <c r="D98">
-        <v>-0.07728858605467984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1829015921163033</v>
+      </c>
+      <c r="E98">
+        <v>-0.1510977227281179</v>
+      </c>
+      <c r="F98">
+        <v>0.04554757768552142</v>
+      </c>
+      <c r="G98">
+        <v>-0.1008077145780632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01091793949443077</v>
+        <v>0.005981863099467815</v>
       </c>
       <c r="C101">
-        <v>0.02829489385889017</v>
+        <v>0.02742381033421627</v>
       </c>
       <c r="D101">
-        <v>0.01788339788073139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01943373189020607</v>
+      </c>
+      <c r="E101">
+        <v>0.03161281168867155</v>
+      </c>
+      <c r="F101">
+        <v>-0.08955560958652689</v>
+      </c>
+      <c r="G101">
+        <v>-0.003966306532960793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1238756898526524</v>
+        <v>0.1249002257041033</v>
       </c>
       <c r="C102">
-        <v>0.06995891195726893</v>
+        <v>0.0992810387095634</v>
       </c>
       <c r="D102">
-        <v>0.03377165881614652</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05033075652349451</v>
+      </c>
+      <c r="E102">
+        <v>-0.008597929587919384</v>
+      </c>
+      <c r="F102">
+        <v>-0.03928958549532767</v>
+      </c>
+      <c r="G102">
+        <v>-0.02272535500768941</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
